--- a/planilhaNatu.xlsx
+++ b/planilhaNatu.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Pichau\Desktop\planilha-natu\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3A4D91D-0836-4858-8812-BB3BE42C6703}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D905C8F6-0F75-4E66-930F-98D50C16E4CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{99D052D5-C345-4552-B6B0-1C821E90F27C}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{99D052D5-C345-4552-B6B0-1C821E90F27C}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabela Produtos" sheetId="1" r:id="rId1"/>
+    <sheet name="Composição do Estoque" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5768" uniqueCount="931">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5829" uniqueCount="934">
   <si>
     <t>DESCRIÇÃO</t>
   </si>
@@ -2827,6 +2828,15 @@
   </si>
   <si>
     <t>TABELA DE PRODUTOS</t>
+  </si>
+  <si>
+    <t>QTDD</t>
+  </si>
+  <si>
+    <t>%</t>
+  </si>
+  <si>
+    <t>TOTAL</t>
   </si>
 </sst>
 </file>
@@ -2888,7 +2898,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2902,12 +2912,28 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Moeda" xfId="1" builtinId="4"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="10">
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -2926,9 +2952,6 @@
         <scheme val="minor"/>
       </font>
       <numFmt numFmtId="164" formatCode="&quot;R$&quot;\ #,##0.00"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -2985,6 +3008,8700 @@
 </styleSheet>
 </file>
 
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="pt-BR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Gráfico de Distribuição dos Alimentos Doces</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pt-BR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:view3D>
+      <c:rotX val="15"/>
+      <c:rotY val="20"/>
+      <c:depthPercent val="100"/>
+      <c:rAngAx val="1"/>
+    </c:view3D>
+    <c:floor>
+      <c:thickness val="0"/>
+      <c:spPr>
+        <a:solidFill>
+          <a:schemeClr val="bg2">
+            <a:lumMod val="75000"/>
+            <a:alpha val="27000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:floor>
+    <c:sideWall>
+      <c:thickness val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:sideWall>
+    <c:backWall>
+      <c:thickness val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:backWall>
+    <c:plotArea>
+      <c:layout/>
+      <c:bar3DChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Composição do Estoque'!$M$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>ADOÇANTES</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2">
+                <a:alpha val="88000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst/>
+            <a:scene3d>
+              <a:camera prst="orthographicFront"/>
+              <a:lightRig rig="threePt" dir="t"/>
+            </a:scene3d>
+            <a:sp3d prstMaterial="flat">
+              <a:contourClr>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="50000"/>
+                </a:schemeClr>
+              </a:contourClr>
+            </a:sp3d>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:alpha val="30000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:alpha val="50000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="63500" dist="88900" dir="2700000" algn="tl" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="40000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="pt-BR"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:separator/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="lt1">
+                          <a:lumMod val="50000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Composição do Estoque'!$O$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>%</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Composição do Estoque'!$O$2</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>5.2631578947368425</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-C9B8-4F33-B4F7-FCA1499D7022}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Composição do Estoque'!$M$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>BALAS</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4">
+                <a:alpha val="88000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="accent4">
+                  <a:lumMod val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst/>
+            <a:scene3d>
+              <a:camera prst="orthographicFront"/>
+              <a:lightRig rig="threePt" dir="t"/>
+            </a:scene3d>
+            <a:sp3d prstMaterial="flat">
+              <a:contourClr>
+                <a:schemeClr val="accent4">
+                  <a:lumMod val="50000"/>
+                </a:schemeClr>
+              </a:contourClr>
+            </a:sp3d>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4">
+                  <a:alpha val="30000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:alpha val="50000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="63500" dist="88900" dir="2700000" algn="tl" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="40000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="pt-BR"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="lt1">
+                          <a:lumMod val="50000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Composição do Estoque'!$O$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>%</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Composição do Estoque'!$O$3</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>15.789473684210526</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-C9B8-4F33-B4F7-FCA1499D7022}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Composição do Estoque'!$M$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>BISCOITOS</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent6">
+                <a:alpha val="88000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="accent6">
+                  <a:lumMod val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst/>
+            <a:scene3d>
+              <a:camera prst="orthographicFront"/>
+              <a:lightRig rig="threePt" dir="t"/>
+            </a:scene3d>
+            <a:sp3d prstMaterial="flat">
+              <a:contourClr>
+                <a:schemeClr val="accent6">
+                  <a:lumMod val="50000"/>
+                </a:schemeClr>
+              </a:contourClr>
+            </a:sp3d>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6">
+                  <a:alpha val="30000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:alpha val="50000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="63500" dist="88900" dir="2700000" algn="tl" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="40000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="pt-BR"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="lt1">
+                          <a:lumMod val="50000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Composição do Estoque'!$O$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>%</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Composição do Estoque'!$O$4</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>2.6315789473684212</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-C9B8-4F33-B4F7-FCA1499D7022}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Composição do Estoque'!$M$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>BOLOS</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2">
+                <a:lumMod val="60000"/>
+                <a:alpha val="88000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="60000"/>
+                  <a:lumMod val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst/>
+            <a:scene3d>
+              <a:camera prst="orthographicFront"/>
+              <a:lightRig rig="threePt" dir="t"/>
+            </a:scene3d>
+            <a:sp3d prstMaterial="flat">
+              <a:contourClr>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="60000"/>
+                  <a:lumMod val="50000"/>
+                </a:schemeClr>
+              </a:contourClr>
+            </a:sp3d>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="60000"/>
+                  <a:alpha val="30000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:alpha val="50000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="63500" dist="88900" dir="2700000" algn="tl" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="40000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="pt-BR"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="lt1">
+                          <a:lumMod val="50000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Composição do Estoque'!$O$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>%</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Composição do Estoque'!$O$5</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>18.421052631578949</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-C9B8-4F33-B4F7-FCA1499D7022}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Composição do Estoque'!$M$6</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>CALDAS</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4">
+                <a:lumMod val="60000"/>
+                <a:alpha val="88000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="accent4">
+                  <a:lumMod val="60000"/>
+                  <a:lumMod val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst/>
+            <a:scene3d>
+              <a:camera prst="orthographicFront"/>
+              <a:lightRig rig="threePt" dir="t"/>
+            </a:scene3d>
+            <a:sp3d prstMaterial="flat">
+              <a:contourClr>
+                <a:schemeClr val="accent4">
+                  <a:lumMod val="60000"/>
+                  <a:lumMod val="50000"/>
+                </a:schemeClr>
+              </a:contourClr>
+            </a:sp3d>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4">
+                  <a:lumMod val="60000"/>
+                  <a:alpha val="30000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:alpha val="50000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="63500" dist="88900" dir="2700000" algn="tl" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="40000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="pt-BR"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="lt1">
+                          <a:lumMod val="50000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Composição do Estoque'!$O$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>%</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Composição do Estoque'!$O$6</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>15.789473684210526</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-C9B8-4F33-B4F7-FCA1499D7022}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Composição do Estoque'!$M$7</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>CEREAIS</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent6">
+                <a:lumMod val="60000"/>
+                <a:alpha val="88000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="accent6">
+                  <a:lumMod val="60000"/>
+                  <a:lumMod val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst/>
+            <a:scene3d>
+              <a:camera prst="orthographicFront"/>
+              <a:lightRig rig="threePt" dir="t"/>
+            </a:scene3d>
+            <a:sp3d prstMaterial="flat">
+              <a:contourClr>
+                <a:schemeClr val="accent6">
+                  <a:lumMod val="60000"/>
+                  <a:lumMod val="50000"/>
+                </a:schemeClr>
+              </a:contourClr>
+            </a:sp3d>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6">
+                  <a:lumMod val="60000"/>
+                  <a:alpha val="30000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:alpha val="50000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="63500" dist="88900" dir="2700000" algn="tl" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="40000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="pt-BR"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="lt1">
+                          <a:lumMod val="50000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Composição do Estoque'!$O$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>%</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Composição do Estoque'!$O$7</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>15.789473684210526</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-C9B8-4F33-B4F7-FCA1499D7022}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="6"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Composição do Estoque'!$M$8</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>DOCES</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2">
+                <a:lumMod val="80000"/>
+                <a:lumOff val="20000"/>
+                <a:alpha val="88000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="80000"/>
+                  <a:lumOff val="20000"/>
+                  <a:lumMod val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst/>
+            <a:scene3d>
+              <a:camera prst="orthographicFront"/>
+              <a:lightRig rig="threePt" dir="t"/>
+            </a:scene3d>
+            <a:sp3d prstMaterial="flat">
+              <a:contourClr>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="80000"/>
+                  <a:lumOff val="20000"/>
+                  <a:lumMod val="50000"/>
+                </a:schemeClr>
+              </a:contourClr>
+            </a:sp3d>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="80000"/>
+                  <a:lumOff val="20000"/>
+                  <a:alpha val="30000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:alpha val="50000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="63500" dist="88900" dir="2700000" algn="tl" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="40000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="pt-BR"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="lt1">
+                          <a:lumMod val="50000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Composição do Estoque'!$O$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>%</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Composição do Estoque'!$O$8</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>21.05263157894737</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000007-C9B8-4F33-B4F7-FCA1499D7022}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="7"/>
+          <c:order val="7"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Composição do Estoque'!$M$9</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>LEITES</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4">
+                <a:lumMod val="80000"/>
+                <a:lumOff val="20000"/>
+                <a:alpha val="88000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="accent4">
+                  <a:lumMod val="80000"/>
+                  <a:lumOff val="20000"/>
+                  <a:lumMod val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst/>
+            <a:scene3d>
+              <a:camera prst="orthographicFront"/>
+              <a:lightRig rig="threePt" dir="t"/>
+            </a:scene3d>
+            <a:sp3d prstMaterial="flat">
+              <a:contourClr>
+                <a:schemeClr val="accent4">
+                  <a:lumMod val="80000"/>
+                  <a:lumOff val="20000"/>
+                  <a:lumMod val="50000"/>
+                </a:schemeClr>
+              </a:contourClr>
+            </a:sp3d>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4">
+                  <a:lumMod val="80000"/>
+                  <a:lumOff val="20000"/>
+                  <a:alpha val="30000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:alpha val="50000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="63500" dist="88900" dir="2700000" algn="tl" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="40000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="pt-BR"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="lt1">
+                          <a:lumMod val="50000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Composição do Estoque'!$O$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>%</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Composição do Estoque'!$O$9</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>5.2631578947368425</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000008-C9B8-4F33-B4F7-FCA1499D7022}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="84"/>
+        <c:gapDepth val="53"/>
+        <c:shape val="box"/>
+        <c:axId val="523051968"/>
+        <c:axId val="523052624"/>
+        <c:axId val="0"/>
+      </c:bar3DChart>
+      <c:catAx>
+        <c:axId val="523051968"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1">
+                        <a:lumMod val="75000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="pt-BR"/>
+                  <a:t>Produtos</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="lt1">
+                      <a:lumMod val="75000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="pt-BR"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="75000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-BR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="523052624"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="523052624"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="l"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1">
+                        <a:lumMod val="75000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="pt-BR"/>
+                  <a:t>Porcentagem dos Produtos</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="lt1">
+                      <a:lumMod val="75000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="pt-BR"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="523051968"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="t"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pt-BR"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </a:solidFill>
+    <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:tint val="75000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="pt-BR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="pt-BR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="100" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="95000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:effectLst>
+                  <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+                    <a:prstClr val="black">
+                      <a:alpha val="40000"/>
+                    </a:prstClr>
+                  </a:outerShdw>
+                </a:effectLst>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Gráfico de Distribuição dos Alimentos Salgados</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="40000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pt-BR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="bar"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Composição do Estoque'!$M$18</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>CHIPS</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent2">
+                    <a:satMod val="103000"/>
+                    <a:lumMod val="102000"/>
+                    <a:tint val="94000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="50000">
+                  <a:schemeClr val="accent2">
+                    <a:satMod val="110000"/>
+                    <a:lumMod val="100000"/>
+                    <a:shade val="100000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent2">
+                    <a:lumMod val="99000"/>
+                    <a:satMod val="120000"/>
+                    <a:shade val="78000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="5400000" scaled="0"/>
+            </a:gradFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1">
+                        <a:lumMod val="85000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="pt-BR"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="lt1">
+                          <a:lumMod val="95000"/>
+                          <a:alpha val="54000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Composição do Estoque'!$O$17</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>%</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Composição do Estoque'!$O$18</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>23.529411764705884</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-B2A4-4666-8A96-9E20D477CF26}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Composição do Estoque'!$M$19</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>MANTEIGA</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent4">
+                    <a:satMod val="103000"/>
+                    <a:lumMod val="102000"/>
+                    <a:tint val="94000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="50000">
+                  <a:schemeClr val="accent4">
+                    <a:satMod val="110000"/>
+                    <a:lumMod val="100000"/>
+                    <a:shade val="100000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent4">
+                    <a:lumMod val="99000"/>
+                    <a:satMod val="120000"/>
+                    <a:shade val="78000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="5400000" scaled="0"/>
+            </a:gradFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1">
+                        <a:lumMod val="85000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="pt-BR"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="lt1">
+                          <a:lumMod val="95000"/>
+                          <a:alpha val="54000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Composição do Estoque'!$O$17</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>%</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Composição do Estoque'!$O$19</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>5.882352941176471</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-B2A4-4666-8A96-9E20D477CF26}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Composição do Estoque'!$M$20</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>MOLHOS</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent6">
+                    <a:satMod val="103000"/>
+                    <a:lumMod val="102000"/>
+                    <a:tint val="94000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="50000">
+                  <a:schemeClr val="accent6">
+                    <a:satMod val="110000"/>
+                    <a:lumMod val="100000"/>
+                    <a:shade val="100000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent6">
+                    <a:lumMod val="99000"/>
+                    <a:satMod val="120000"/>
+                    <a:shade val="78000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="5400000" scaled="0"/>
+            </a:gradFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1">
+                        <a:lumMod val="85000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="pt-BR"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="lt1">
+                          <a:lumMod val="95000"/>
+                          <a:alpha val="54000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Composição do Estoque'!$O$17</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>%</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Composição do Estoque'!$O$20</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>23.529411764705884</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-B2A4-4666-8A96-9E20D477CF26}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Composição do Estoque'!$M$21</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>SAIS</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent2">
+                    <a:lumMod val="60000"/>
+                    <a:satMod val="103000"/>
+                    <a:lumMod val="102000"/>
+                    <a:tint val="94000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="50000">
+                  <a:schemeClr val="accent2">
+                    <a:lumMod val="60000"/>
+                    <a:satMod val="110000"/>
+                    <a:lumMod val="100000"/>
+                    <a:shade val="100000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent2">
+                    <a:lumMod val="60000"/>
+                    <a:lumMod val="99000"/>
+                    <a:satMod val="120000"/>
+                    <a:shade val="78000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="5400000" scaled="0"/>
+            </a:gradFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1">
+                        <a:lumMod val="85000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="pt-BR"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="lt1">
+                          <a:lumMod val="95000"/>
+                          <a:alpha val="54000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Composição do Estoque'!$O$17</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>%</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Composição do Estoque'!$O$21</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>11.764705882352942</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-B2A4-4666-8A96-9E20D477CF26}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Composição do Estoque'!$M$22</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>SALGADINHOS</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent4">
+                    <a:lumMod val="60000"/>
+                    <a:satMod val="103000"/>
+                    <a:lumMod val="102000"/>
+                    <a:tint val="94000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="50000">
+                  <a:schemeClr val="accent4">
+                    <a:lumMod val="60000"/>
+                    <a:satMod val="110000"/>
+                    <a:lumMod val="100000"/>
+                    <a:shade val="100000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent4">
+                    <a:lumMod val="60000"/>
+                    <a:lumMod val="99000"/>
+                    <a:satMod val="120000"/>
+                    <a:shade val="78000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="5400000" scaled="0"/>
+            </a:gradFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1">
+                        <a:lumMod val="85000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="pt-BR"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="lt1">
+                          <a:lumMod val="95000"/>
+                          <a:alpha val="54000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Composição do Estoque'!$O$17</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>%</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Composição do Estoque'!$O$22</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>11.764705882352942</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-B2A4-4666-8A96-9E20D477CF26}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Composição do Estoque'!$M$23</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>VINAGRES</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent6">
+                    <a:lumMod val="60000"/>
+                    <a:satMod val="103000"/>
+                    <a:lumMod val="102000"/>
+                    <a:tint val="94000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="50000">
+                  <a:schemeClr val="accent6">
+                    <a:lumMod val="60000"/>
+                    <a:satMod val="110000"/>
+                    <a:lumMod val="100000"/>
+                    <a:shade val="100000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent6">
+                    <a:lumMod val="60000"/>
+                    <a:lumMod val="99000"/>
+                    <a:satMod val="120000"/>
+                    <a:shade val="78000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="5400000" scaled="0"/>
+            </a:gradFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1">
+                        <a:lumMod val="85000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="pt-BR"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="lt1">
+                          <a:lumMod val="95000"/>
+                          <a:alpha val="54000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Composição do Estoque'!$O$17</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>%</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Composição do Estoque'!$O$23</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>23.529411764705884</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-B2A4-4666-8A96-9E20D477CF26}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="outEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="562833064"/>
+        <c:axId val="562827816"/>
+      </c:barChart>
+      <c:valAx>
+        <c:axId val="562827816"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="95000"/>
+                  <a:alpha val="10000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1">
+                        <a:lumMod val="85000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="pt-BR"/>
+                  <a:t>Porcentagem dos Produtos</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="lt1">
+                      <a:lumMod val="85000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="pt-BR"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="85000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-BR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="562833064"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:catAx>
+        <c:axId val="562833064"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1">
+                        <a:lumMod val="85000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="pt-BR"/>
+                  <a:t>Produtos</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="lt1">
+                      <a:lumMod val="85000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="pt-BR"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="lt1">
+                <a:lumMod val="95000"/>
+                <a:alpha val="54000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="85000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-BR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="562827816"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pt-BR"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:gradFill flip="none" rotWithShape="1">
+      <a:gsLst>
+        <a:gs pos="0">
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:gs>
+        <a:gs pos="100000">
+          <a:schemeClr val="dk1">
+            <a:lumMod val="85000"/>
+            <a:lumOff val="15000"/>
+          </a:schemeClr>
+        </a:gs>
+      </a:gsLst>
+      <a:path path="circle">
+        <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+      </a:path>
+      <a:tileRect/>
+    </a:gradFill>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="pt-BR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="pt-BR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="dk1">
+                    <a:lumMod val="75000"/>
+                    <a:lumOff val="25000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Composição</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> do Estoque</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="75000"/>
+                  <a:lumOff val="25000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pt-BR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:view3D>
+      <c:rotX val="50"/>
+      <c:rotY val="0"/>
+      <c:depthPercent val="100"/>
+      <c:rAngAx val="0"/>
+    </c:view3D>
+    <c:floor>
+      <c:thickness val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:floor>
+    <c:sideWall>
+      <c:thickness val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:sideWall>
+    <c:backWall>
+      <c:thickness val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:backWall>
+    <c:plotArea>
+      <c:layout/>
+      <c:pie3DChart>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Composição do Estoque'!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>QTDD</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="20000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+              <a:sp3d/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="20000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+              <a:sp3d/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="20000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+              <a:sp3d/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="3"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="20000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+              <a:sp3d/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="4"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="20000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+              <a:sp3d/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="5"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="20000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+              <a:sp3d/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="6"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="20000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+              <a:sp3d/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="7"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="20000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+              <a:sp3d/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="8"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="20000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+              <a:sp3d/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="9"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="20000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+              <a:sp3d/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="10"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="20000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+              <a:sp3d/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="11"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="20000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+              <a:sp3d/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="12"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="80000"/>
+                  <a:lumOff val="20000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="20000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+              <a:sp3d/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="13"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="80000"/>
+                  <a:lumOff val="20000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="20000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+              <a:sp3d/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="14"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3">
+                  <a:lumMod val="80000"/>
+                  <a:lumOff val="20000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="20000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+              <a:sp3d/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="15"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4">
+                  <a:lumMod val="80000"/>
+                  <a:lumOff val="20000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="20000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+              <a:sp3d/>
+            </c:spPr>
+          </c:dPt>
+          <c:dLbls>
+            <c:spPr>
+              <a:pattFill prst="pct75">
+                <a:fgClr>
+                  <a:schemeClr val="dk1">
+                    <a:lumMod val="75000"/>
+                    <a:lumOff val="25000"/>
+                  </a:schemeClr>
+                </a:fgClr>
+                <a:bgClr>
+                  <a:schemeClr val="dk1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:bgClr>
+              </a:pattFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="40000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="pt-BR"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="1"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Composição do Estoque'!$A$2:$A$17</c:f>
+              <c:strCache>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>ALIMENTOS DOCES</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>ALIMENTOS SALGADOS</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>AMENDOINS E PETISCOS</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>BARRAS DE CEREAIS</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>BEBIDAS</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>CHÁS</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>CHOCOLATES</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>FARINHAS E FARELOS</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>FRUTAS ESPECIAIS</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>MEL E DERIVADOS</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>OLEAGINOSAS</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>PREPAROS RÁPIDOS</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>SAUDE</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>SEMENTES E GRÃOS</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>TEMPEROS E CONDIMENTOS</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>UTENSÍLIOS</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Composição do Estoque'!$B$2:$B$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>141</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>71</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>6</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-7969-447F-8056-1532B7A6EB6B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="ctr"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="1"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:showLeaderLines val="0"/>
+        </c:dLbls>
+      </c:pie3DChart>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="39000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="75000"/>
+                  <a:lumOff val="25000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pt-BR"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:gradFill flip="none" rotWithShape="1">
+      <a:gsLst>
+        <a:gs pos="0">
+          <a:schemeClr val="lt1"/>
+        </a:gs>
+        <a:gs pos="39000">
+          <a:schemeClr val="lt1"/>
+        </a:gs>
+        <a:gs pos="100000">
+          <a:schemeClr val="lt1">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:gs>
+      </a:gsLst>
+      <a:path path="circle">
+        <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+      </a:path>
+      <a:tileRect/>
+    </a:gradFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="25000"/>
+          <a:lumOff val="75000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="pt-BR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="pt-BR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="100" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="95000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:effectLst>
+                  <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+                    <a:prstClr val="black">
+                      <a:alpha val="40000"/>
+                    </a:prstClr>
+                  </a:outerShdw>
+                </a:effectLst>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Gráfico</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> de Distribuição dos Amendoins e Petiscos</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="40000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pt-BR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:view3D>
+      <c:rotX val="30"/>
+      <c:rotY val="0"/>
+      <c:depthPercent val="100"/>
+      <c:rAngAx val="0"/>
+    </c:view3D>
+    <c:floor>
+      <c:thickness val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:floor>
+    <c:sideWall>
+      <c:thickness val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:sideWall>
+    <c:backWall>
+      <c:thickness val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:backWall>
+    <c:plotArea>
+      <c:layout/>
+      <c:pie3DChart>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Composição do Estoque'!$N$31</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>QTDD</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:gradFill rotWithShape="1">
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="accent2">
+                      <a:satMod val="103000"/>
+                      <a:lumMod val="102000"/>
+                      <a:tint val="94000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="50000">
+                    <a:schemeClr val="accent2">
+                      <a:satMod val="110000"/>
+                      <a:lumMod val="100000"/>
+                      <a:shade val="100000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="accent2">
+                      <a:lumMod val="99000"/>
+                      <a:satMod val="120000"/>
+                      <a:shade val="78000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="000000">
+                    <a:alpha val="63000"/>
+                  </a:srgbClr>
+                </a:outerShdw>
+              </a:effectLst>
+              <a:sp3d/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:gradFill rotWithShape="1">
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="accent4">
+                      <a:satMod val="103000"/>
+                      <a:lumMod val="102000"/>
+                      <a:tint val="94000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="50000">
+                    <a:schemeClr val="accent4">
+                      <a:satMod val="110000"/>
+                      <a:lumMod val="100000"/>
+                      <a:shade val="100000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="accent4">
+                      <a:lumMod val="99000"/>
+                      <a:satMod val="120000"/>
+                      <a:shade val="78000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="000000">
+                    <a:alpha val="63000"/>
+                  </a:srgbClr>
+                </a:outerShdw>
+              </a:effectLst>
+              <a:sp3d/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:gradFill rotWithShape="1">
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="accent6">
+                      <a:satMod val="103000"/>
+                      <a:lumMod val="102000"/>
+                      <a:tint val="94000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="50000">
+                    <a:schemeClr val="accent6">
+                      <a:satMod val="110000"/>
+                      <a:lumMod val="100000"/>
+                      <a:shade val="100000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="accent6">
+                      <a:lumMod val="99000"/>
+                      <a:satMod val="120000"/>
+                      <a:shade val="78000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="000000">
+                    <a:alpha val="63000"/>
+                  </a:srgbClr>
+                </a:outerShdw>
+              </a:effectLst>
+              <a:sp3d/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="3"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:gradFill rotWithShape="1">
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="accent2">
+                      <a:lumMod val="60000"/>
+                      <a:satMod val="103000"/>
+                      <a:lumMod val="102000"/>
+                      <a:tint val="94000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="50000">
+                    <a:schemeClr val="accent2">
+                      <a:lumMod val="60000"/>
+                      <a:satMod val="110000"/>
+                      <a:lumMod val="100000"/>
+                      <a:shade val="100000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="accent2">
+                      <a:lumMod val="60000"/>
+                      <a:lumMod val="99000"/>
+                      <a:satMod val="120000"/>
+                      <a:shade val="78000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="000000">
+                    <a:alpha val="63000"/>
+                  </a:srgbClr>
+                </a:outerShdw>
+              </a:effectLst>
+              <a:sp3d/>
+            </c:spPr>
+          </c:dPt>
+          <c:dLbls>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="FFC000">
+                  <a:lumMod val="20000"/>
+                  <a:lumOff val="80000"/>
+                </a:srgbClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="dk1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="pt-BR"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="1"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:spPr xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                  <a:prstGeom prst="wedgeRectCallout">
+                    <a:avLst/>
+                  </a:prstGeom>
+                  <a:noFill/>
+                  <a:ln>
+                    <a:noFill/>
+                  </a:ln>
+                </c15:spPr>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Composição do Estoque'!$M$32:$M$35</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>BISCOITOS</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>CHIPS</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>OLEAGINOSAS</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>PETISCOS</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Composição do Estoque'!$N$32:$N$35</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-AB58-4919-9488-9113F4DA1C0D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="1"/>
+          <c:showBubbleSize val="0"/>
+          <c:showLeaderLines val="0"/>
+        </c:dLbls>
+      </c:pie3DChart>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="t"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pt-BR"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:gradFill flip="none" rotWithShape="1">
+      <a:gsLst>
+        <a:gs pos="0">
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:gs>
+        <a:gs pos="100000">
+          <a:schemeClr val="dk1">
+            <a:lumMod val="85000"/>
+            <a:lumOff val="15000"/>
+          </a:schemeClr>
+        </a:gs>
+      </a:gsLst>
+      <a:path path="circle">
+        <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+      </a:path>
+      <a:tileRect/>
+    </a:gradFill>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="pt-BR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="pt-BR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="100" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="95000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:effectLst>
+                  <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+                    <a:prstClr val="black">
+                      <a:alpha val="40000"/>
+                    </a:prstClr>
+                  </a:outerShdw>
+                </a:effectLst>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1800" b="1" i="0" baseline="0">
+                <a:effectLst>
+                  <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+                    <a:srgbClr val="000000">
+                      <a:alpha val="40000"/>
+                    </a:srgbClr>
+                  </a:outerShdw>
+                </a:effectLst>
+              </a:rPr>
+              <a:t>Gráfico de Distribuição das</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1800" b="1" i="0" baseline="0">
+                <a:effectLst>
+                  <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+                    <a:srgbClr val="000000">
+                      <a:alpha val="40000"/>
+                    </a:srgbClr>
+                  </a:outerShdw>
+                </a:effectLst>
+              </a:rPr>
+              <a:t>Barras de Cereais</a:t>
+            </a:r>
+            <a:endParaRPr lang="pt-BR">
+              <a:effectLst/>
+            </a:endParaRPr>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="40000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pt-BR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:view3D>
+      <c:rotX val="30"/>
+      <c:rotY val="0"/>
+      <c:depthPercent val="100"/>
+      <c:rAngAx val="0"/>
+    </c:view3D>
+    <c:floor>
+      <c:thickness val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:floor>
+    <c:sideWall>
+      <c:thickness val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:sideWall>
+    <c:backWall>
+      <c:thickness val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:backWall>
+    <c:plotArea>
+      <c:layout/>
+      <c:pie3DChart>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Composição do Estoque'!$B$24</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>QTDD</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:gradFill rotWithShape="1">
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="accent2">
+                      <a:satMod val="103000"/>
+                      <a:lumMod val="102000"/>
+                      <a:tint val="94000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="50000">
+                    <a:schemeClr val="accent2">
+                      <a:satMod val="110000"/>
+                      <a:lumMod val="100000"/>
+                      <a:shade val="100000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="accent2">
+                      <a:lumMod val="99000"/>
+                      <a:satMod val="120000"/>
+                      <a:shade val="78000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="000000">
+                    <a:alpha val="63000"/>
+                  </a:srgbClr>
+                </a:outerShdw>
+              </a:effectLst>
+              <a:sp3d/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:gradFill rotWithShape="1">
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="accent4">
+                      <a:satMod val="103000"/>
+                      <a:lumMod val="102000"/>
+                      <a:tint val="94000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="50000">
+                    <a:schemeClr val="accent4">
+                      <a:satMod val="110000"/>
+                      <a:lumMod val="100000"/>
+                      <a:shade val="100000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="accent4">
+                      <a:lumMod val="99000"/>
+                      <a:satMod val="120000"/>
+                      <a:shade val="78000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="000000">
+                    <a:alpha val="63000"/>
+                  </a:srgbClr>
+                </a:outerShdw>
+              </a:effectLst>
+              <a:sp3d/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:gradFill rotWithShape="1">
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="accent6">
+                      <a:satMod val="103000"/>
+                      <a:lumMod val="102000"/>
+                      <a:tint val="94000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="50000">
+                    <a:schemeClr val="accent6">
+                      <a:satMod val="110000"/>
+                      <a:lumMod val="100000"/>
+                      <a:shade val="100000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="accent6">
+                      <a:lumMod val="99000"/>
+                      <a:satMod val="120000"/>
+                      <a:shade val="78000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="000000">
+                    <a:alpha val="63000"/>
+                  </a:srgbClr>
+                </a:outerShdw>
+              </a:effectLst>
+              <a:sp3d/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="3"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:gradFill rotWithShape="1">
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="accent2">
+                      <a:lumMod val="60000"/>
+                      <a:satMod val="103000"/>
+                      <a:lumMod val="102000"/>
+                      <a:tint val="94000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="50000">
+                    <a:schemeClr val="accent2">
+                      <a:lumMod val="60000"/>
+                      <a:satMod val="110000"/>
+                      <a:lumMod val="100000"/>
+                      <a:shade val="100000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="accent2">
+                      <a:lumMod val="60000"/>
+                      <a:lumMod val="99000"/>
+                      <a:satMod val="120000"/>
+                      <a:shade val="78000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="000000">
+                    <a:alpha val="63000"/>
+                  </a:srgbClr>
+                </a:outerShdw>
+              </a:effectLst>
+              <a:sp3d/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="4"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:gradFill rotWithShape="1">
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="accent4">
+                      <a:lumMod val="60000"/>
+                      <a:satMod val="103000"/>
+                      <a:lumMod val="102000"/>
+                      <a:tint val="94000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="50000">
+                    <a:schemeClr val="accent4">
+                      <a:lumMod val="60000"/>
+                      <a:satMod val="110000"/>
+                      <a:lumMod val="100000"/>
+                      <a:shade val="100000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="accent4">
+                      <a:lumMod val="60000"/>
+                      <a:lumMod val="99000"/>
+                      <a:satMod val="120000"/>
+                      <a:shade val="78000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="000000">
+                    <a:alpha val="63000"/>
+                  </a:srgbClr>
+                </a:outerShdw>
+              </a:effectLst>
+              <a:sp3d/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="5"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:gradFill rotWithShape="1">
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="accent6">
+                      <a:lumMod val="60000"/>
+                      <a:satMod val="103000"/>
+                      <a:lumMod val="102000"/>
+                      <a:tint val="94000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="50000">
+                    <a:schemeClr val="accent6">
+                      <a:lumMod val="60000"/>
+                      <a:satMod val="110000"/>
+                      <a:lumMod val="100000"/>
+                      <a:shade val="100000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="accent6">
+                      <a:lumMod val="60000"/>
+                      <a:lumMod val="99000"/>
+                      <a:satMod val="120000"/>
+                      <a:shade val="78000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="000000">
+                    <a:alpha val="63000"/>
+                  </a:srgbClr>
+                </a:outerShdw>
+              </a:effectLst>
+              <a:sp3d/>
+            </c:spPr>
+          </c:dPt>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1">
+                        <a:lumMod val="85000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="pt-BR"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="1"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="1"/>
+            <c:leaderLines>
+              <c:spPr>
+                <a:ln w="9525">
+                  <a:solidFill>
+                    <a:schemeClr val="lt1">
+                      <a:lumMod val="95000"/>
+                      <a:alpha val="54000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+            </c:leaderLines>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Composição do Estoque'!$A$25:$A$30</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>Nuts Bar</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Move</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>VO2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Atlhetica Nutrition</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Ejoy</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Kobber</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Composição do Estoque'!$B$25:$B$30</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>8</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-ACF0-402B-A8FE-C257544FFEA5}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="1"/>
+          <c:showBubbleSize val="0"/>
+          <c:showLeaderLines val="1"/>
+        </c:dLbls>
+      </c:pie3DChart>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="t"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pt-BR"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:gradFill flip="none" rotWithShape="1">
+      <a:gsLst>
+        <a:gs pos="0">
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:gs>
+        <a:gs pos="100000">
+          <a:schemeClr val="dk1">
+            <a:lumMod val="85000"/>
+            <a:lumOff val="15000"/>
+          </a:schemeClr>
+        </a:gs>
+      </a:gsLst>
+      <a:path path="circle">
+        <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+      </a:path>
+      <a:tileRect/>
+    </a:gradFill>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="pt-BR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="pt-BR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="100" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="95000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:effectLst>
+                  <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+                    <a:prstClr val="black">
+                      <a:alpha val="40000"/>
+                    </a:prstClr>
+                  </a:outerShdw>
+                </a:effectLst>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Gráfico de Distribuição das Bebidas</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="40000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pt-BR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:view3D>
+      <c:rotX val="30"/>
+      <c:rotY val="0"/>
+      <c:depthPercent val="100"/>
+      <c:rAngAx val="0"/>
+    </c:view3D>
+    <c:floor>
+      <c:thickness val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:floor>
+    <c:sideWall>
+      <c:thickness val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:sideWall>
+    <c:backWall>
+      <c:thickness val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:backWall>
+    <c:plotArea>
+      <c:layout/>
+      <c:pie3DChart>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Composição do Estoque'!$B$41</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>QTDD</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:gradFill rotWithShape="1">
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="accent2">
+                      <a:satMod val="103000"/>
+                      <a:lumMod val="102000"/>
+                      <a:tint val="94000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="50000">
+                    <a:schemeClr val="accent2">
+                      <a:satMod val="110000"/>
+                      <a:lumMod val="100000"/>
+                      <a:shade val="100000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="accent2">
+                      <a:lumMod val="99000"/>
+                      <a:satMod val="120000"/>
+                      <a:shade val="78000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="000000">
+                    <a:alpha val="63000"/>
+                  </a:srgbClr>
+                </a:outerShdw>
+              </a:effectLst>
+              <a:sp3d/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:gradFill rotWithShape="1">
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="accent4">
+                      <a:satMod val="103000"/>
+                      <a:lumMod val="102000"/>
+                      <a:tint val="94000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="50000">
+                    <a:schemeClr val="accent4">
+                      <a:satMod val="110000"/>
+                      <a:lumMod val="100000"/>
+                      <a:shade val="100000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="accent4">
+                      <a:lumMod val="99000"/>
+                      <a:satMod val="120000"/>
+                      <a:shade val="78000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="000000">
+                    <a:alpha val="63000"/>
+                  </a:srgbClr>
+                </a:outerShdw>
+              </a:effectLst>
+              <a:sp3d/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:gradFill rotWithShape="1">
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="accent6">
+                      <a:satMod val="103000"/>
+                      <a:lumMod val="102000"/>
+                      <a:tint val="94000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="50000">
+                    <a:schemeClr val="accent6">
+                      <a:satMod val="110000"/>
+                      <a:lumMod val="100000"/>
+                      <a:shade val="100000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="accent6">
+                      <a:lumMod val="99000"/>
+                      <a:satMod val="120000"/>
+                      <a:shade val="78000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="000000">
+                    <a:alpha val="63000"/>
+                  </a:srgbClr>
+                </a:outerShdw>
+              </a:effectLst>
+              <a:sp3d/>
+            </c:spPr>
+          </c:dPt>
+          <c:dLbls>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4">
+                  <a:lumMod val="20000"/>
+                  <a:lumOff val="80000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="pt-BR"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="1"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="1"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="1"/>
+            <c:leaderLines>
+              <c:spPr>
+                <a:ln w="9525">
+                  <a:solidFill>
+                    <a:schemeClr val="lt1">
+                      <a:lumMod val="95000"/>
+                      <a:alpha val="54000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+            </c:leaderLines>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Composição do Estoque'!$A$42:$A$44</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>AGUA</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>CHÁS</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>SUCOS</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Composição do Estoque'!$B$42:$B$44</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-0DDF-49A7-B6A0-988DB5DC8C59}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="1"/>
+          <c:showBubbleSize val="0"/>
+          <c:showLeaderLines val="1"/>
+        </c:dLbls>
+      </c:pie3DChart>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:gradFill flip="none" rotWithShape="1">
+      <a:gsLst>
+        <a:gs pos="0">
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:gs>
+        <a:gs pos="100000">
+          <a:schemeClr val="dk1">
+            <a:lumMod val="85000"/>
+            <a:lumOff val="15000"/>
+          </a:schemeClr>
+        </a:gs>
+      </a:gsLst>
+      <a:path path="circle">
+        <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+      </a:path>
+      <a:tileRect/>
+    </a:gradFill>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="pt-BR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="12">
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="12">
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="12">
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="12">
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="12">
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="291">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:tint val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr">
+          <a:alpha val="30000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:alpha val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+      <a:effectLst>
+        <a:outerShdw blurRad="63500" dist="88900" dir="2700000" algn="tl" rotWithShape="0">
+          <a:prstClr val="black">
+            <a:alpha val="40000"/>
+          </a:prstClr>
+        </a:outerShdw>
+      </a:effectLst>
+    </cs:spPr>
+    <cs:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr">
+          <a:alpha val="30000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:alpha val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+      <a:effectLst>
+        <a:outerShdw blurRad="63500" dist="88900" dir="2700000" algn="tl" rotWithShape="0">
+          <a:prstClr val="black">
+            <a:alpha val="40000"/>
+          </a:prstClr>
+        </a:outerShdw>
+      </a:effectLst>
+    </cs:spPr>
+    <cs:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr">
+          <a:alpha val="88000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr">
+          <a:alpha val="88000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+      <a:scene3d>
+        <a:camera prst="orthographicFront"/>
+        <a:lightRig rig="threePt" dir="t"/>
+      </a:scene3d>
+      <a:sp3d prstMaterial="flat"/>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="50000"/>
+          <a:lumOff val="50000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg2">
+          <a:lumMod val="75000"/>
+          <a:alpha val="27000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:sp3d/>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:defRPr sz="1800" b="0" kern="1200" cap="all" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:alpha val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1">
+          <a:lumMod val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:sp3d/>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="222">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200" cap="all"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:gradFill flip="none" rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="dk1">
+              <a:lumMod val="65000"/>
+              <a:lumOff val="35000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="dk1">
+              <a:lumMod val="85000"/>
+              <a:lumOff val="15000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:path path="circle">
+          <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+        </a:path>
+        <a:tileRect/>
+      </a:gradFill>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="34925" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="10000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="5000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="95000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1600" b="1" kern="1200" spc="100" baseline="0">
+      <a:effectLst>
+        <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+          <a:prstClr val="black">
+            <a:alpha val="40000"/>
+          </a:prstClr>
+        </a:outerShdw>
+      </a:effectLst>
+    </cs:defRPr>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="264">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200" cap="all" baseline="0"/>
+  </cs:categoryAxis>
+  <cs:chartArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:gradFill flip="none" rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="lt1"/>
+          </a:gs>
+          <a:gs pos="39000">
+            <a:schemeClr val="lt1"/>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="lt1">
+              <a:lumMod val="75000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:path path="circle">
+          <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+        </a:path>
+        <a:tileRect/>
+      </a:gradFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:pattFill prst="pct75">
+        <a:fgClr>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:fgClr>
+        <a:bgClr>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:bgClr>
+      </a:pattFill>
+      <a:effectLst>
+        <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+          <a:prstClr val="black">
+            <a:alpha val="40000"/>
+          </a:prstClr>
+        </a:outerShdw>
+      </a:effectLst>
+    </cs:spPr>
+    <cs:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:pattFill prst="pct75">
+        <a:fgClr>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:fgClr>
+        <a:bgClr>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:bgClr>
+      </a:pattFill>
+      <a:effectLst>
+        <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+          <a:prstClr val="black">
+            <a:alpha val="40000"/>
+          </a:prstClr>
+        </a:outerShdw>
+      </a:effectLst>
+    </cs:spPr>
+    <cs:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:effectLst>
+        <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+          <a:prstClr val="black">
+            <a:alpha val="20000"/>
+          </a:prstClr>
+        </a:outerShdw>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:effectLst>
+        <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+          <a:prstClr val="black">
+            <a:alpha val="20000"/>
+          </a:prstClr>
+        </a:outerShdw>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="31750" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:alpha val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr">
+          <a:alpha val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="50000"/>
+          <a:lumOff val="50000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:gradFill>
+          <a:gsLst>
+            <a:gs pos="100000">
+              <a:schemeClr val="dk1">
+                <a:lumMod val="95000"/>
+                <a:lumOff val="5000"/>
+                <a:alpha val="42000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="0">
+              <a:schemeClr val="lt1">
+                <a:lumMod val="75000"/>
+                <a:alpha val="36000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:gradFill>
+          <a:gsLst>
+            <a:gs pos="100000">
+              <a:schemeClr val="dk1">
+                <a:lumMod val="95000"/>
+                <a:lumOff val="5000"/>
+                <a:alpha val="42000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="0">
+              <a:schemeClr val="lt1">
+                <a:lumMod val="75000"/>
+                <a:alpha val="36000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1">
+          <a:lumMod val="95000"/>
+          <a:alpha val="39000"/>
+        </a:schemeClr>
+      </a:solidFill>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="31750" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1800" b="1" kern="1200" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="268">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200" cap="all"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:gradFill flip="none" rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="dk1">
+              <a:lumMod val="65000"/>
+              <a:lumOff val="35000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="dk1">
+              <a:lumMod val="85000"/>
+              <a:lumOff val="15000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:path path="circle">
+          <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+        </a:path>
+        <a:tileRect/>
+      </a:gradFill>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="34925" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="10000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="5000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="95000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1600" b="1" kern="1200" spc="100" baseline="0">
+      <a:effectLst>
+        <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+          <a:prstClr val="black">
+            <a:alpha val="40000"/>
+          </a:prstClr>
+        </a:outerShdw>
+      </a:effectLst>
+    </cs:defRPr>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="268">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200" cap="all"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:gradFill flip="none" rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="dk1">
+              <a:lumMod val="65000"/>
+              <a:lumOff val="35000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="dk1">
+              <a:lumMod val="85000"/>
+              <a:lumOff val="15000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:path path="circle">
+          <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+        </a:path>
+        <a:tileRect/>
+      </a:gradFill>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="34925" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="10000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="5000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="95000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1600" b="1" kern="1200" spc="100" baseline="0">
+      <a:effectLst>
+        <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+          <a:prstClr val="black">
+            <a:alpha val="40000"/>
+          </a:prstClr>
+        </a:outerShdw>
+      </a:effectLst>
+    </cs:defRPr>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="268">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200" cap="all"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:gradFill flip="none" rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="dk1">
+              <a:lumMod val="65000"/>
+              <a:lumOff val="35000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="dk1">
+              <a:lumMod val="85000"/>
+              <a:lumOff val="15000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:path path="circle">
+          <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+        </a:path>
+        <a:tileRect/>
+      </a:gradFill>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="34925" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="10000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="5000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="95000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1600" b="1" kern="1200" spc="100" baseline="0">
+      <a:effectLst>
+        <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+          <a:prstClr val="black">
+            <a:alpha val="40000"/>
+          </a:prstClr>
+        </a:outerShdw>
+      </a:effectLst>
+    </cs:defRPr>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>361950</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Gráfico 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{20E44EA4-02AF-42B1-8B1A-E3202A84655A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>42862</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>14287</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>347662</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>90487</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="Gráfico 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D6DD52D2-4E82-4CF5-AF2A-80AA90F2D185}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>119061</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>90487</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>409574</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="7" name="Gráfico 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9CB8121F-42FA-4B7A-9E2F-D26E3EB02F98}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>14287</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>333375</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="9" name="Gráfico 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{36070EBF-C121-4C93-B7F6-A2D16578B36F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>100011</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>14287</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>323849</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>90487</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="10" name="Gráfico 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{830AA709-93CF-4D81-B2DD-143190291F4B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>52387</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>4762</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="11" name="Gráfico 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B23BDA22-37C5-4C77-AC7C-5E20E053270D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId6"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{E7F0AB04-62A6-4A82-A04F-08977B26FDC0}" name="tabelaProdutos" displayName="tabelaProdutos" ref="A2:L577" totalsRowShown="0">
   <autoFilter ref="A2:L577" xr:uid="{E7F0AB04-62A6-4A82-A04F-08977B26FDC0}"/>
@@ -3003,8 +11720,8 @@
     <tableColumn id="8" xr3:uid="{747948C4-69B9-4FF0-9F4B-7DAD0DDB05DF}" name="MEDIDA" dataDxfId="4"/>
     <tableColumn id="9" xr3:uid="{43530AF2-09C9-4F78-AD74-84E766D35DAC}" name="TAMANHO" dataDxfId="3"/>
     <tableColumn id="10" xr3:uid="{DCD98FAE-DA4F-4D0F-A0A9-1925FF156F65}" name="PREÇO" dataDxfId="2" dataCellStyle="Moeda"/>
-    <tableColumn id="13" xr3:uid="{CB76565F-A4EC-4175-8504-D0B803436C1B}" name="CATEGORIA" dataDxfId="0" dataCellStyle="Moeda"/>
-    <tableColumn id="11" xr3:uid="{A346CA6E-C37F-4CD2-B8DB-1186BE25CBDB}" name="SUB-CATEGORIAS" dataDxfId="1"/>
+    <tableColumn id="13" xr3:uid="{CB76565F-A4EC-4175-8504-D0B803436C1B}" name="CATEGORIA" dataDxfId="1" dataCellStyle="Moeda"/>
+    <tableColumn id="11" xr3:uid="{A346CA6E-C37F-4CD2-B8DB-1186BE25CBDB}" name="SUB-CATEGORIAS" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium21" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -3309,8 +12026,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CFC5E121-BCF6-4E3F-8AAA-76007FAC6D71}">
   <dimension ref="A1:L577"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+    <sheetView topLeftCell="A91" workbookViewId="0">
+      <selection activeCell="L105" sqref="L105:L114"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -25241,4 +33958,567 @@
     <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3907C77B-EC71-4E0D-931A-75C999CA709A}">
+  <dimension ref="A1:O44"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="M53" sqref="M53"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="26.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="7.28515625" customWidth="1"/>
+    <col min="13" max="13" width="21.5703125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="6" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="7.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>931</v>
+      </c>
+      <c r="C1" s="1"/>
+      <c r="M1" t="s">
+        <v>915</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>931</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>932</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>915</v>
+      </c>
+      <c r="B2" s="1">
+        <f>COUNTIF(tabelaProdutos[CATEGORIA],'Composição do Estoque'!A2)</f>
+        <v>55</v>
+      </c>
+      <c r="C2" s="9"/>
+      <c r="M2" t="s">
+        <v>876</v>
+      </c>
+      <c r="N2" s="1">
+        <f>COUNTIFS(tabelaProdutos[CATEGORIA],$A$2,tabelaProdutos[SUB-CATEGORIAS],M2)</f>
+        <v>2</v>
+      </c>
+      <c r="O2" s="9">
+        <f>(N2*100)/N$10</f>
+        <v>5.2631578947368425</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>920</v>
+      </c>
+      <c r="B3" s="1">
+        <f>COUNTIF(tabelaProdutos[CATEGORIA],'Composição do Estoque'!A3)</f>
+        <v>17</v>
+      </c>
+      <c r="C3" s="9"/>
+      <c r="M3" t="s">
+        <v>873</v>
+      </c>
+      <c r="N3" s="1">
+        <f>COUNTIFS(tabelaProdutos[CATEGORIA],$A$2,tabelaProdutos[SUB-CATEGORIAS],M3)</f>
+        <v>6</v>
+      </c>
+      <c r="O3" s="9">
+        <f t="shared" ref="O3:O9" si="0">(N3*100)/N$10</f>
+        <v>15.789473684210526</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>929</v>
+      </c>
+      <c r="B4" s="1">
+        <f>COUNTIF(tabelaProdutos[CATEGORIA],'Composição do Estoque'!A4)</f>
+        <v>15</v>
+      </c>
+      <c r="C4" s="9"/>
+      <c r="M4" t="s">
+        <v>874</v>
+      </c>
+      <c r="N4" s="1">
+        <f>COUNTIFS(tabelaProdutos[CATEGORIA],$A$2,tabelaProdutos[SUB-CATEGORIAS],M4)</f>
+        <v>1</v>
+      </c>
+      <c r="O4" s="9">
+        <f t="shared" si="0"/>
+        <v>2.6315789473684212</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5" s="1">
+        <f>COUNTIF(tabelaProdutos[CATEGORIA],'Composição do Estoque'!A5)</f>
+        <v>15</v>
+      </c>
+      <c r="C5" s="9"/>
+      <c r="M5" t="s">
+        <v>868</v>
+      </c>
+      <c r="N5" s="1">
+        <f>COUNTIFS(tabelaProdutos[CATEGORIA],$A$2,tabelaProdutos[SUB-CATEGORIAS],M5)</f>
+        <v>7</v>
+      </c>
+      <c r="O5" s="9">
+        <f t="shared" si="0"/>
+        <v>18.421052631578949</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" s="1">
+        <f>COUNTIF(tabelaProdutos[CATEGORIA],'Composição do Estoque'!A6)</f>
+        <v>10</v>
+      </c>
+      <c r="C6" s="9"/>
+      <c r="M6" t="s">
+        <v>870</v>
+      </c>
+      <c r="N6" s="1">
+        <f>COUNTIFS(tabelaProdutos[CATEGORIA],$A$2,tabelaProdutos[SUB-CATEGORIAS],M6)</f>
+        <v>6</v>
+      </c>
+      <c r="O6" s="9">
+        <f t="shared" si="0"/>
+        <v>15.789473684210526</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>249</v>
+      </c>
+      <c r="B7" s="1">
+        <f>COUNTIF(tabelaProdutos[CATEGORIA],'Composição do Estoque'!A7)</f>
+        <v>75</v>
+      </c>
+      <c r="C7" s="9"/>
+      <c r="M7" t="s">
+        <v>869</v>
+      </c>
+      <c r="N7" s="1">
+        <f>COUNTIFS(tabelaProdutos[CATEGORIA],$A$2,tabelaProdutos[SUB-CATEGORIAS],M7)</f>
+        <v>6</v>
+      </c>
+      <c r="O7" s="9">
+        <f t="shared" si="0"/>
+        <v>15.789473684210526</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>864</v>
+      </c>
+      <c r="B8" s="1">
+        <f>COUNTIF(tabelaProdutos[CATEGORIA],'Composição do Estoque'!A8)</f>
+        <v>41</v>
+      </c>
+      <c r="C8" s="9"/>
+      <c r="M8" t="s">
+        <v>871</v>
+      </c>
+      <c r="N8" s="1">
+        <f>COUNTIFS(tabelaProdutos[CATEGORIA],$A$2,tabelaProdutos[SUB-CATEGORIAS],M8)</f>
+        <v>8</v>
+      </c>
+      <c r="O8" s="9">
+        <f t="shared" si="0"/>
+        <v>21.05263157894737</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>927</v>
+      </c>
+      <c r="B9" s="1">
+        <f>COUNTIF(tabelaProdutos[CATEGORIA],'Composição do Estoque'!A9)</f>
+        <v>51</v>
+      </c>
+      <c r="C9" s="9"/>
+      <c r="M9" t="s">
+        <v>875</v>
+      </c>
+      <c r="N9" s="1">
+        <f>COUNTIFS(tabelaProdutos[CATEGORIA],$A$2,tabelaProdutos[SUB-CATEGORIAS],M9)</f>
+        <v>2</v>
+      </c>
+      <c r="O9" s="9">
+        <f t="shared" si="0"/>
+        <v>5.2631578947368425</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A10" s="6" t="s">
+        <v>916</v>
+      </c>
+      <c r="B10" s="1">
+        <f>COUNTIF(tabelaProdutos[CATEGORIA],'Composição do Estoque'!A10)</f>
+        <v>20</v>
+      </c>
+      <c r="C10" s="9"/>
+      <c r="M10" s="8" t="s">
+        <v>933</v>
+      </c>
+      <c r="N10" s="1">
+        <f>SUM(N2:N9)</f>
+        <v>38</v>
+      </c>
+      <c r="O10" s="7">
+        <f>SUM(O2:O9)</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>208</v>
+      </c>
+      <c r="B11" s="1">
+        <f>COUNTIF(tabelaProdutos[CATEGORIA],'Composição do Estoque'!A11)</f>
+        <v>15</v>
+      </c>
+      <c r="C11" s="9"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>215</v>
+      </c>
+      <c r="B12" s="1">
+        <f>COUNTIF(tabelaProdutos[CATEGORIA],'Composição do Estoque'!A12)</f>
+        <v>18</v>
+      </c>
+      <c r="C12" s="9"/>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>549</v>
+      </c>
+      <c r="B13" s="1">
+        <f>COUNTIF(tabelaProdutos[CATEGORIA],'Composição do Estoque'!A13)</f>
+        <v>7</v>
+      </c>
+      <c r="C13" s="9"/>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>922</v>
+      </c>
+      <c r="B14" s="1">
+        <f>COUNTIF(tabelaProdutos[CATEGORIA],'Composição do Estoque'!A14)</f>
+        <v>141</v>
+      </c>
+      <c r="C14" s="9"/>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>928</v>
+      </c>
+      <c r="B15" s="1">
+        <f>COUNTIF(tabelaProdutos[CATEGORIA],'Composição do Estoque'!A15)</f>
+        <v>18</v>
+      </c>
+      <c r="C15" s="9"/>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>921</v>
+      </c>
+      <c r="B16" s="1">
+        <f>COUNTIF(tabelaProdutos[CATEGORIA],'Composição do Estoque'!A16)</f>
+        <v>71</v>
+      </c>
+      <c r="C16" s="9"/>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>635</v>
+      </c>
+      <c r="B17" s="1">
+        <f>COUNTIF(tabelaProdutos[CATEGORIA],'Composição do Estoque'!A17)</f>
+        <v>6</v>
+      </c>
+      <c r="C17" s="9"/>
+      <c r="M17" t="s">
+        <v>920</v>
+      </c>
+      <c r="N17" s="1" t="s">
+        <v>931</v>
+      </c>
+      <c r="O17" s="1" t="s">
+        <v>932</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A18" s="8" t="s">
+        <v>933</v>
+      </c>
+      <c r="B18">
+        <f>SUM(B2:B17)</f>
+        <v>575</v>
+      </c>
+      <c r="C18" s="7"/>
+      <c r="M18" t="s">
+        <v>882</v>
+      </c>
+      <c r="N18" s="1">
+        <f>COUNTIFS(tabelaProdutos[CATEGORIA],$M$17,tabelaProdutos[SUB-CATEGORIAS],M18)</f>
+        <v>4</v>
+      </c>
+      <c r="O18" s="9">
+        <f>(N18*100)/N$24</f>
+        <v>23.529411764705884</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="M19" t="s">
+        <v>885</v>
+      </c>
+      <c r="N19" s="1">
+        <f>COUNTIFS(tabelaProdutos[CATEGORIA],$M$17,tabelaProdutos[SUB-CATEGORIAS],M19)</f>
+        <v>1</v>
+      </c>
+      <c r="O19" s="9">
+        <f t="shared" ref="O19:O23" si="1">(N19*100)/N$24</f>
+        <v>5.882352941176471</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="M20" t="s">
+        <v>883</v>
+      </c>
+      <c r="N20" s="1">
+        <f>COUNTIFS(tabelaProdutos[CATEGORIA],$M$17,tabelaProdutos[SUB-CATEGORIAS],M20)</f>
+        <v>4</v>
+      </c>
+      <c r="O20" s="9">
+        <f t="shared" si="1"/>
+        <v>23.529411764705884</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="M21" t="s">
+        <v>887</v>
+      </c>
+      <c r="N21" s="1">
+        <f>COUNTIFS(tabelaProdutos[CATEGORIA],$M$17,tabelaProdutos[SUB-CATEGORIAS],M21)</f>
+        <v>2</v>
+      </c>
+      <c r="O21" s="9">
+        <f t="shared" si="1"/>
+        <v>11.764705882352942</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="M22" t="s">
+        <v>886</v>
+      </c>
+      <c r="N22" s="1">
+        <f>COUNTIFS(tabelaProdutos[CATEGORIA],$M$17,tabelaProdutos[SUB-CATEGORIAS],M22)</f>
+        <v>2</v>
+      </c>
+      <c r="O22" s="9">
+        <f t="shared" si="1"/>
+        <v>11.764705882352942</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="C23" s="1"/>
+      <c r="M23" t="s">
+        <v>884</v>
+      </c>
+      <c r="N23" s="1">
+        <f>COUNTIFS(tabelaProdutos[CATEGORIA],$M$17,tabelaProdutos[SUB-CATEGORIAS],M23)</f>
+        <v>4</v>
+      </c>
+      <c r="O23" s="9">
+        <f t="shared" si="1"/>
+        <v>23.529411764705884</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>15</v>
+      </c>
+      <c r="B24" t="s">
+        <v>931</v>
+      </c>
+      <c r="C24" s="9"/>
+      <c r="M24" t="s">
+        <v>933</v>
+      </c>
+      <c r="N24">
+        <f>SUM(N18:N23)</f>
+        <v>17</v>
+      </c>
+      <c r="O24">
+        <f>SUM(O18:O23)</f>
+        <v>100.00000000000001</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>641</v>
+      </c>
+      <c r="B25">
+        <f>COUNTIFS(tabelaProdutos[CATEGORIA],A$24,tabelaProdutos[MARCA],A25)</f>
+        <v>1</v>
+      </c>
+      <c r="C25" s="9"/>
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>645</v>
+      </c>
+      <c r="B26">
+        <f>COUNTIFS(tabelaProdutos[CATEGORIA],A$24,tabelaProdutos[MARCA],A26)</f>
+        <v>1</v>
+      </c>
+      <c r="C26" s="9"/>
+    </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>648</v>
+      </c>
+      <c r="B27">
+        <f>COUNTIFS(tabelaProdutos[CATEGORIA],A$24,tabelaProdutos[MARCA],A27)</f>
+        <v>2</v>
+      </c>
+      <c r="C27" s="9"/>
+    </row>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>642</v>
+      </c>
+      <c r="B28">
+        <f>COUNTIFS(tabelaProdutos[CATEGORIA],A$24,tabelaProdutos[MARCA],A28)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>649</v>
+      </c>
+      <c r="B29">
+        <f>COUNTIFS(tabelaProdutos[CATEGORIA],A$24,tabelaProdutos[MARCA],A29)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>650</v>
+      </c>
+      <c r="B30">
+        <f>COUNTIFS(tabelaProdutos[CATEGORIA],A$24,tabelaProdutos[MARCA],A30)</f>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="M31" t="s">
+        <v>929</v>
+      </c>
+      <c r="N31" s="1" t="s">
+        <v>931</v>
+      </c>
+    </row>
+    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="M32" t="s">
+        <v>874</v>
+      </c>
+      <c r="N32" s="1">
+        <f>COUNTIFS(tabelaProdutos[CATEGORIA],$M$31,tabelaProdutos[SUB-CATEGORIAS],M32)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="M33" t="s">
+        <v>882</v>
+      </c>
+      <c r="N33" s="1">
+        <f>COUNTIFS(tabelaProdutos[CATEGORIA],$M$31,tabelaProdutos[SUB-CATEGORIAS],M33)</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="M34" t="s">
+        <v>215</v>
+      </c>
+      <c r="N34" s="1">
+        <f>COUNTIFS(tabelaProdutos[CATEGORIA],$M$31,tabelaProdutos[SUB-CATEGORIAS],M34)</f>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="35" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="M35" t="s">
+        <v>907</v>
+      </c>
+      <c r="N35" s="1">
+        <f>COUNTIFS(tabelaProdutos[CATEGORIA],$M$31,tabelaProdutos[SUB-CATEGORIAS],M35)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="M36" t="s">
+        <v>933</v>
+      </c>
+      <c r="N36" s="1">
+        <f>SUM(N32:N35)</f>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="41" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A41" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B41" t="s">
+        <v>931</v>
+      </c>
+    </row>
+    <row r="42" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A42" s="5" t="s">
+        <v>913</v>
+      </c>
+      <c r="B42">
+        <f>COUNTIFS(tabelaProdutos[CATEGORIA],A$41,tabelaProdutos[SUB-CATEGORIAS],A42)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A43" s="5" t="s">
+        <v>249</v>
+      </c>
+      <c r="B43">
+        <f>COUNTIFS(tabelaProdutos[CATEGORIA],A$41,tabelaProdutos[SUB-CATEGORIAS],A43)</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A44" s="5" t="s">
+        <v>912</v>
+      </c>
+      <c r="B44">
+        <f>COUNTIFS(tabelaProdutos[CATEGORIA],A$41,tabelaProdutos[SUB-CATEGORIAS],A44)</f>
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>